--- a/2022_09_11_query/RESOLUÇÃO-RE Nº 175, DE 20 DE JANEIRO DE 2022.xlsx
+++ b/2022_09_11_query/RESOLUÇÃO-RE Nº 175, DE 20 DE JANEIRO DE 2022.xlsx
@@ -345,14 +345,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>RESOLUÇÃO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EMPRESA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AUTORIZAÇÃO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MARCA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PROCESSO</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>REGISTRO</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VENDA E EMPREGO</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>VENCIMENTO</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>APRESENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>VALIDADE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CATEGORIA</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ASSUNTO
+PETIÇÃO</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>EXPEDIENTE E PETIÇÃO</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>VERSÃO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>